--- a/medicine/Œil et vue/Fédération_internationale_des_sports_pour_personnes_aveugles/Fédération_internationale_des_sports_pour_personnes_aveugles.xlsx
+++ b/medicine/Œil et vue/Fédération_internationale_des_sports_pour_personnes_aveugles/Fédération_internationale_des_sports_pour_personnes_aveugles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_sports_pour_personnes_aveugles</t>
+          <t>Fédération_internationale_des_sports_pour_personnes_aveugles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fédération internationale des sports pour personnes aveugles (en anglais International Blind Sports Federation, en abrégé IBSA) est une organisation à but non lucratif internationale qui fédère une centaine de fédérations nationales pour le sport à destination des personnes aveugles ou malvoyantes.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_sports_pour_personnes_aveugles</t>
+          <t>Fédération_internationale_des_sports_pour_personnes_aveugles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Sports</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IBSA est la fédération internationale qui régit la pratique de douze sports adaptés au handicap visuel dont trois disciplines paralympiques :
 Athlétisme
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_sports_pour_personnes_aveugles</t>
+          <t>Fédération_internationale_des_sports_pour_personnes_aveugles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération Internationale des Sports Aveugles a été fondée à Paris en 1981 en tant qu’organisation à but non lucratif. Le congrès fondateur s'est tenu au siège de l'UNESCO en présence de 30 pays. En 1985 s'est tenue à Hurdal en Norvège l'assemblée générale qui a adopté la première constitution.
 </t>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_sports_pour_personnes_aveugles</t>
+          <t>Fédération_internationale_des_sports_pour_personnes_aveugles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Associations membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les associations qui sont barrées sont des membres suspendus.
 </t>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_sports_pour_personnes_aveugles</t>
+          <t>Fédération_internationale_des_sports_pour_personnes_aveugles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,6 +637,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
